--- a/manual/subsidiaries_to_search_hb32_manual.xlsx
+++ b/manual/subsidiaries_to_search_hb32_manual.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyu/Stigler Center Dropbox/Sih-Yu Wei/USInvestmentInNaziGermany/IdentifyingUS/comprehensive list/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A33E4-A0A0-D84B-95D2-AEE72B7393D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93AF22C4-37D9-2141-9A7A-AF928E590FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18980" yWindow="-16400" windowWidth="21420" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="221">
   <si>
     <t>German subsidiary</t>
   </si>
@@ -43,36 +43,66 @@
     <t>"Borvisk" Kunstseiden A. G.</t>
   </si>
   <si>
+    <t>„Borvisk“ Kunstseiden-Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
     <t>"Debag" Betriebstoff A.G.</t>
   </si>
   <si>
+    <t>„Debag“ Deutsche Betriebsstoff-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>"Dom" Finanz A. G. für chemische Unternehmenungen</t>
   </si>
   <si>
+    <t>„Dom“ Finanz-Aktiengesellschaft für chemische Unternehmungen</t>
+  </si>
+  <si>
     <t>"Rustica" A.G. fuer Grunderwerb</t>
   </si>
   <si>
+    <t>„Rustica“ Akt.-Ges. für Grunderwerb</t>
+  </si>
+  <si>
     <t>A. S. Hinds AG</t>
   </si>
   <si>
+    <t>Hinds Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>A.G. vormals Seidel and Neumann</t>
   </si>
   <si>
+    <t>Actiengesellschaft vorm. Seidel &amp; Naumann</t>
+  </si>
+  <si>
     <t>Aktien-Malsfabrik Landsburg, A. G.</t>
   </si>
   <si>
+    <t>Aktien-Malzfabrik Landsberg</t>
+  </si>
+  <si>
     <t>Aktiengesellschaft fuer Anlagewerte</t>
   </si>
   <si>
     <t>Aktiengesellschaft fuer Geschaeftshausbau (Leipzig, Germany)</t>
   </si>
   <si>
+    <t>Aktiengesellschaft für Geschäftshausbau</t>
+  </si>
+  <si>
     <t>Alpenminen A. G.</t>
   </si>
   <si>
     <t>Askania Werke A. G.</t>
   </si>
   <si>
+    <t>Askaniawerke Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Bekleidungs-Aktiengesellschaft</t>
   </si>
   <si>
@@ -88,21 +118,36 @@
     <t>Busscher &amp; Hoffman Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Büsscher &amp; Hoffmann Akt.-Ges.</t>
+  </si>
+  <si>
     <t>C. H. Knorr A.G.</t>
   </si>
   <si>
+    <t>C. H. Knorr, A.-G.</t>
+  </si>
+  <si>
     <t>Claudius Peters Aktiengesellschaft.</t>
   </si>
   <si>
     <t xml:space="preserve">Continentale Gummiwerke A.G. </t>
   </si>
   <si>
+    <t>Continental Gummi-Werke Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Convertgarten A.G.</t>
   </si>
   <si>
+    <t>Conventgarten-Aktien-Gesellschaft</t>
+  </si>
+  <si>
     <t xml:space="preserve">D. S. Loewe Radio A.G. of Berlin (Germany) </t>
   </si>
   <si>
+    <t>Radioaktiengesellschaft D. S. Loewe,</t>
+  </si>
+  <si>
     <t>Deustche Babcock &amp; Wilcock</t>
   </si>
   <si>
@@ -112,186 +157,363 @@
     <t>Deutsche Burroughs Rechenmaschinen AG</t>
   </si>
   <si>
+    <t>Deutsche Burroughs Rechenmaschinen Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Gasolin AG</t>
   </si>
   <si>
+    <t>Deutsche Gasolin Aktiengesellschaft,</t>
+  </si>
+  <si>
     <t>Deutsche Heraklith A.G.</t>
   </si>
   <si>
+    <t>Deutsche Heraklith-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Deutsche Landerbank Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Deutsche Länderbank Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Libbey-Owens Gesellschaft für machinelle Glasherstellung A.G.</t>
   </si>
   <si>
+    <t>Deutsche Libbey-Owens-Gesellschaft für maschinelle Glasherstellung, Akt.-Ges. (Delog)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deutsche Tafelglas Aktiengesellschaft (Detag). </t>
   </si>
   <si>
+    <t>Deutsche Tafelglas Aktiengesellschaft (Detag)</t>
+  </si>
+  <si>
     <t>Deutsche Universal Film, A.G.</t>
   </si>
   <si>
+    <t>Deutsche Universal-Film Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Deutsche Vacuum Oel AG</t>
   </si>
   <si>
+    <t>Deutsche Vacuum Oel Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Deutsche-Fox Film A.G.</t>
   </si>
   <si>
+    <t>Deutsche Fox-Film Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Duco AG</t>
   </si>
   <si>
+    <t>Duco Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>E. Gundlach A.G.</t>
   </si>
   <si>
+    <t>E. Gundlach Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Ebano Asphalt-Werke Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Ebano Asphalt-Werke, Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Edoel-Bergbau Aktiengesellschaft Celle Norddeutsche Mineraloel Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Norddeutsche Mineralöl-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Eisenbahn Verkehrsmittel A.-G.</t>
   </si>
   <si>
+    <t>Eisenbahn-Verkehrsmittel-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Elektrolux A.G.</t>
   </si>
   <si>
+    <t>Elektrolux Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Emas A.G. fuer Strassenbaubedarf</t>
   </si>
   <si>
+    <t>„Emas“ Aktiengesellschaft für Strassenbaubedarf</t>
+  </si>
+  <si>
     <t>Emge-Union Oesterreichische Telephonwerke A.G.</t>
   </si>
   <si>
     <t>Emil Koster Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Emil Köster A.-G., Lederfabriken</t>
+  </si>
+  <si>
     <t>Enziger Union Werke AG</t>
   </si>
   <si>
     <t>Erdolbergbau A.G., Celle</t>
   </si>
   <si>
+    <t>„Ebag“ Erdölbergbau-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Europäische Tanklager und Transport AG</t>
   </si>
   <si>
+    <t>Europäische Tanklager- und Transport-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Ferdinand Schuchhardt Berliner Fernsprech-und Telegraphenwerk AG</t>
   </si>
   <si>
+    <t>Ferdinand Schuchhardt, Berliner Fernsprech- u. Telegraphenwerk Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Finkenheerder Obstwerke Richard Sonnenberg AG</t>
   </si>
   <si>
+    <t>Finkenheerder Syrupwerke Richard Sonnenburg Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Fuerstenhof Carlton Hotel, A.G.</t>
   </si>
   <si>
+    <t>Fürstenhof Carlton-Hotel Aktiengesellschaft (Esplanade- Palasthotel) in Frankfurt a. M., Bahnhofsplatz 18.</t>
+  </si>
+  <si>
     <t>Gasbrennerfabrikation Aktiengesellschaft.</t>
   </si>
   <si>
     <t>Glasfabrik, Aktiengesellschaft.</t>
   </si>
   <si>
+    <t>Glasfabrik, Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Glaswerke Ruhr A.G.</t>
   </si>
   <si>
+    <t>Glaswerke Ruhr Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Godecke &amp; Co. Chemische Fabrik A.G.</t>
   </si>
   <si>
+    <t>Gödecke &amp; Co. Chemische Fabrik Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Godecke &amp; Co. Chemische Fabrik und Export A.G.</t>
   </si>
   <si>
+    <t>Goedecke &amp; Co. Chemische Fabrik und Export-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Gustav Lohse AG</t>
   </si>
   <si>
+    <t>Gustav Lohse Aktiengesellschaft in Berlin.</t>
+  </si>
+  <si>
     <t>H. &amp; P. Sauermann, A.G.</t>
   </si>
   <si>
+    <t>H. &amp; P. Sauermann Akt.-Ges.</t>
+  </si>
+  <si>
+    <t>Hamburg-Amerika Linie</t>
+  </si>
+  <si>
+    <t>left_only</t>
+  </si>
+  <si>
     <t>Hamburger Hof A.G.</t>
   </si>
   <si>
+    <t>„Hamburger Hof“, Aktien-Gesellschaft</t>
+  </si>
+  <si>
     <t>Hirsch-Bräu Aktiengesellschaft.</t>
   </si>
   <si>
+    <t>Adler- und Hirsch-Brauerei Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Hotel Atlantic A.G.</t>
   </si>
   <si>
+    <t>Atlantic-Hotel-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Hugo Stinnes Reederei A.G.</t>
   </si>
   <si>
+    <t>Hugo Stinnes Reederei Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>I. G. Farbenindustrie</t>
   </si>
   <si>
+    <t>1. 6. Farbenindustrie Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Ilseder Hütte</t>
   </si>
   <si>
     <t>Industrie lackwerke A.G.</t>
   </si>
   <si>
+    <t>Industrielackwerke, Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Industrie-Export Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Industrie und Export Aktien-Gesellschaft</t>
+  </si>
+  <si>
     <t>Injecta Aktiengesellschaft zur Fabrikation Chiurgischer Instruments</t>
   </si>
   <si>
+    <t>Injeeta Akt.-Ges. zur Fabrikation chirurgischer Instrumente</t>
+  </si>
+  <si>
     <t>J. P. Bemberg A.G.</t>
   </si>
   <si>
+    <t>J. P. Bemberg, Aktien-Gesellschatft,</t>
+  </si>
+  <si>
     <t>Julius Pintsch A.-G.</t>
   </si>
   <si>
+    <t>Julius Pintsch, Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Koehlmann Werke A.G.</t>
   </si>
   <si>
     <t>Kohlen Import &amp; Poseidon A.G.</t>
   </si>
   <si>
+    <t>Kohlen-Import und Poseidon Schiffahrt A.-G.</t>
+  </si>
+  <si>
     <t>Kristall Glaswerk A.G.</t>
   </si>
   <si>
+    <t>Kristallglaswerk Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Kuehltransit A.-G.</t>
   </si>
   <si>
+    <t>Kühltransit-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Kurt Wachtel AG</t>
   </si>
   <si>
+    <t>Rauchwaren-Zurichterei und -Färberei Kurt Wachtel.</t>
+  </si>
+  <si>
     <t>Lohse, Gustave A.G.</t>
   </si>
   <si>
     <t>Lorenz, C. A.G.</t>
   </si>
   <si>
+    <t>C. Lorenz Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Maschinenfabrik Augsburg Nurnberg A. G. of Germany</t>
   </si>
   <si>
+    <t>Maschinenfabrik Augsburg-Nürnberg A.-G.</t>
+  </si>
+  <si>
     <t>Maschinenfabrik Banning &amp; Seybold A.G.</t>
   </si>
   <si>
+    <t>*Maschinenfabrik Banning &amp; Seybold, Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Maschinenfabriken Wagner-Doerries Aktiengesellschaft (formerly: Maschinenfabrik Aktiengesellschaft vorm. Wagner &amp; Co. )</t>
   </si>
   <si>
+    <t>Maschinenfabrik Act.-Ges. vorm. Wagner &amp; Co.</t>
+  </si>
+  <si>
+    <t>Metallgesellschaft A.G.</t>
+  </si>
+  <si>
     <t>Midgard Deutsche Seeverkehrs A.G.</t>
   </si>
   <si>
+    <t>„Midgard“ Deutsche Seeverkehrs-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Minimax A. G.</t>
   </si>
   <si>
+    <t>Minimax-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Muelheimer Bergwerks Verein A.G.</t>
   </si>
   <si>
+    <t>Mülheimer Bergwerksverein</t>
+  </si>
+  <si>
     <t>Mundlos Akteingesellschaft, Magdeburg</t>
   </si>
   <si>
+    <t>Mundlos Aktien-Gesellschaft</t>
+  </si>
+  <si>
     <t>Nassauer Hof A.G. (Hotel Nassau)</t>
   </si>
   <si>
+    <t>Hotel Nassau (Nassauer Hof) Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Nica Nickelindustrie A.G.</t>
   </si>
   <si>
+    <t>Nica Nickel-Industrie Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Niederrheinische Papier- u. Pappenfabrik Aktiengesellschaft.</t>
   </si>
   <si>
+    <t>Niederrheinische Papier- u. Pappenfabrik Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Norddeustche Eiswerke A.G.</t>
   </si>
   <si>
+    <t>Norddeutsche Eiswerke, Actien-Gesellschaft</t>
+  </si>
+  <si>
     <t>Norddeutsche Oelmuehlenwerke A.G.</t>
   </si>
   <si>
+    <t>Norddeutsche Oelmühlenwerke Akt.-Ges.</t>
+  </si>
+  <si>
+    <t>Norddeutsche Portland Cementfabrik Misburg</t>
+  </si>
+  <si>
     <t>Oesterreische Magnesit A. G.</t>
   </si>
   <si>
@@ -301,15 +523,24 @@
     <t>Orga Akt. Ges.</t>
   </si>
   <si>
+    <t>Orga Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Ota Schlesische Schurwerke Ottmuth A.G.</t>
   </si>
   <si>
     <t>Ottensenser Eisenwerke AG</t>
   </si>
   <si>
+    <t>Ottensener Eisenwerk Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>P. Wohl, Akt.-Ges.</t>
   </si>
   <si>
+    <t>P. Wohl, Akt.-Ges. in .Frankfurt a. M.,</t>
+  </si>
+  <si>
     <t>Parker A. G.</t>
   </si>
   <si>
@@ -322,346 +553,136 @@
     <t>Pressluftwerkzeug und Maschinenbau AG (Premag)</t>
   </si>
   <si>
+    <t>Pressluftwerkzeug- und Maschinenbau Akt.-Ges. „Premag“</t>
+  </si>
+  <si>
     <t>Preussische Bergwerks- und Hutten Gesellschaft</t>
   </si>
   <si>
+    <t>Preussische Bergwerks- und Hütten-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Robert Bosch A.G.</t>
   </si>
   <si>
+    <t>Robert Bosch A.-G.</t>
+  </si>
+  <si>
     <t>Schriftgiesserei und Messinglinienfabrik D. Stempel Akt.</t>
   </si>
   <si>
+    <t>Schriftgiesserei D. Stempel, Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Schulke &amp; Mayr A.G.</t>
   </si>
   <si>
+    <t>Schülke &amp; Mayr Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Siemens &amp; Halske, A.G.</t>
   </si>
   <si>
+    <t>Siemens &amp; Halske, Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Siemens -Schuckertwerke A. G.</t>
   </si>
   <si>
+    <t>Siemens-Schuckertwerke Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Singer Nahmaschinen Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Singer Nähmaschinen Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Standard Telephon &amp; Radio A.G.</t>
   </si>
   <si>
     <t>Standard Zahnfabrik A.G.</t>
   </si>
   <si>
+    <t>Standard Zahnfabrik, Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Suedwest A.G.</t>
   </si>
   <si>
     <t>Telephonfabrik Berliner AG</t>
   </si>
   <si>
+    <t>Telephonfabrik Berliner Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>Th. Goldschmidt of Essen, Germany</t>
+  </si>
+  <si>
     <t>Vereinigte Aluminiumwerke A. G.</t>
   </si>
   <si>
+    <t>Vereinigte Aluminium-\Werke Akt.-Ges. zu Lautawerk</t>
+  </si>
+  <si>
     <t>Vereinigte Bayerische Telephonwerke AG</t>
   </si>
   <si>
+    <t>Vereinigte Bayerische Telephonwerke Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Vereinigte Berliner Kohlenhandel A.G.</t>
   </si>
   <si>
+    <t>Vereinigte Berliner Kohlenhändler-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Vereinigte Elektrizitätswerke Westfalen Aktiengesellschaft.</t>
   </si>
   <si>
+    <t>Vereinigte Elektrizitätswerke Westfalen,</t>
+  </si>
+  <si>
     <t>Vereinigte Glanzstoff A.G.</t>
   </si>
   <si>
+    <t>Vereinigte Glanzstoff-Fabriken, A.-G.</t>
+  </si>
+  <si>
     <t>Verkehrs &amp; Handels Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Verkehrs- und Handels-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>W. A. Schölten Stärke- und Syrup-Fabriken Aktiengesellschaft.</t>
   </si>
   <si>
+    <t>W. A. Scholten Stärke- u. Syrupfabriken Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Walsheim Brauerei Aktien-Gesellschaft vorm. Schmidt &amp; Guttenberger.</t>
   </si>
   <si>
+    <t>Walsheim Brauerei-Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Werschen-Weißenfelser Braunkohlen-Aktien-Gesellschaft.</t>
   </si>
   <si>
+    <t>Werschen -Weissenfelser Braunkohlen-Aktien-Gesellschaft</t>
+  </si>
+  <si>
     <t>Zukunft Lebensversicherungsbank Aktiengesellschaft.</t>
   </si>
   <si>
-    <t>„Borvisk“ Kunstseiden-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>„Debag“ Deutsche Betriebsstoff-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>„Dom“ Finanz-Aktiengesellschaft für chemische Unternehmungen</t>
-  </si>
-  <si>
-    <t>„Rustica“ Akt.-Ges. für Grunderwerb</t>
-  </si>
-  <si>
-    <t>Hinds Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Actiengesellschaft vorm. Seidel &amp; Naumann</t>
-  </si>
-  <si>
-    <t>Aktiengesellschaft für Geschäftshausbau</t>
-  </si>
-  <si>
-    <t>Askaniawerke Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Büsscher &amp; Hoffmann Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>C. H. Knorr, A.-G.</t>
-  </si>
-  <si>
-    <t>Continental Gummi-Werke Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Conventgarten-Aktien-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Radioaktiengesellschaft D. S. Loewe,</t>
-  </si>
-  <si>
-    <t>Deutsche Burroughs Rechenmaschinen Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Gasolin Aktiengesellschaft,</t>
-  </si>
-  <si>
-    <t>Deutsche Heraklith-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Deutsche Länderbank Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Libbey-Owens-Gesellschaft für maschinelle Glasherstellung, Akt.-Ges. (Delog)</t>
-  </si>
-  <si>
-    <t>Deutsche Tafelglas Aktiengesellschaft (Detag)</t>
-  </si>
-  <si>
-    <t>Deutsche Universal-Film Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Deutsche Vacuum Oel Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Deutsche Fox-Film Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Duco Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>E. Gundlach Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Ebano Asphalt-Werke, Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Norddeutsche Mineralöl-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Eisenbahn-Verkehrsmittel-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Elektrolux Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>„Emas“ Aktiengesellschaft für Strassenbaubedarf</t>
-  </si>
-  <si>
-    <t>Emil Köster A.-G., Lederfabriken</t>
-  </si>
-  <si>
-    <t>„Ebag“ Erdölbergbau-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Europäische Tanklager- und Transport-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Ferdinand Schuchhardt, Berliner Fernsprech- u. Telegraphenwerk Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Finkenheerder Syrupwerke Richard Sonnenburg Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Fürstenhof Carlton-Hotel Aktiengesellschaft (Esplanade- Palasthotel) in Frankfurt a. M., Bahnhofsplatz 18.</t>
-  </si>
-  <si>
-    <t>Glasfabrik, Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Glaswerke Ruhr Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Gödecke &amp; Co. Chemische Fabrik Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Goedecke &amp; Co. Chemische Fabrik und Export-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Gustav Lohse Aktiengesellschaft in Berlin.</t>
-  </si>
-  <si>
-    <t>H. &amp; P. Sauermann Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>„Hamburger Hof“, Aktien-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Adler- und Hirsch-Brauerei Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Atlantic-Hotel-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Hugo Stinnes Reederei Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>1. 6. Farbenindustrie Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Industrielackwerke, Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Industrie und Export Aktien-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Injeeta Akt.-Ges. zur Fabrikation chirurgischer Instrumente</t>
-  </si>
-  <si>
-    <t>J. P. Bemberg, Aktien-Gesellschatft,</t>
-  </si>
-  <si>
-    <t>Julius Pintsch, Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Kohlen-Import und Poseidon Schiffahrt A.-G.</t>
-  </si>
-  <si>
-    <t>Kristallglaswerk Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Kühltransit-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Rauchwaren-Zurichterei und -Färberei Kurt Wachtel.</t>
-  </si>
-  <si>
-    <t>C. Lorenz Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>*Maschinenfabrik Banning &amp; Seybold, Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Act.-Ges. vorm. Wagner &amp; Co.</t>
-  </si>
-  <si>
-    <t>„Midgard“ Deutsche Seeverkehrs-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Minimax-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Mülheimer Bergwerksverein</t>
-  </si>
-  <si>
-    <t>Mundlos Aktien-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Hotel Nassau (Nassauer Hof) Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Nica Nickel-Industrie Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Niederrheinische Papier- u. Pappenfabrik Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Norddeutsche Eiswerke, Actien-Gesellschaft</t>
-  </si>
-  <si>
-    <t>Norddeutsche Oelmühlenwerke Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Orga Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Ottensener Eisenwerk Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>P. Wohl, Akt.-Ges. in .Frankfurt a. M.,</t>
-  </si>
-  <si>
-    <t>Pressluftwerkzeug- und Maschinenbau Akt.-Ges. „Premag“</t>
-  </si>
-  <si>
-    <t>Preussische Bergwerks- und Hütten-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Robert Bosch A.-G.</t>
-  </si>
-  <si>
-    <t>Schriftgiesserei D. Stempel, Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Schülke &amp; Mayr Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Siemens &amp; Halske, Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Siemens-Schuckertwerke Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Singer Nähmaschinen Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Standard Zahnfabrik, Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Telephonfabrik Berliner Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Vereinigte Aluminium-\Werke Akt.-Ges. zu Lautawerk</t>
-  </si>
-  <si>
-    <t>Vereinigte Bayerische Telephonwerke Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Vereinigte Berliner Kohlenhändler-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Vereinigte Elektrizitätswerke Westfalen,</t>
-  </si>
-  <si>
-    <t>Vereinigte Glanzstoff-Fabriken, A.-G.</t>
-  </si>
-  <si>
-    <t>Verkehrs- und Handels-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>W. A. Scholten Stärke- u. Syrupfabriken Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Walsheim Brauerei-Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Werschen -Weissenfelser Braunkohlen-Aktien-Gesellschaft</t>
-  </si>
-  <si>
     <t>Zukunft Lebensversicherungsbank Akt.-Ges.</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Augsburg-Nürnberg A.-G.</t>
-  </si>
-  <si>
-    <t>Aktien-Malzfabrik Landsberg</t>
+    <t>Norddeutsche Portland-Cement-Fabrik Misburg.</t>
+  </si>
+  <si>
+    <t>Th. Goldschmidt Akt.-Ges.</t>
   </si>
 </sst>
 </file>
@@ -679,10 +700,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,9 +727,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -729,7 +746,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -742,10 +803,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6DAC877C-8332-354D-9AE1-5A40401C24E5}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:F1048576" xr:uid="{6DAC877C-8332-354D-9AE1-5A40401C24E5}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{798079B9-8361-E14A-AF8A-7FBDABAAD7A5}" name="German subsidiary"/>
+    <tableColumn id="2" xr3:uid="{3DF5E73A-30CB-9646-B3D9-8BF2FC470C86}" name="firmname"/>
+    <tableColumn id="3" xr3:uid="{DC8D3B85-B6D3-1F4B-8C9C-AB2C3E8FDDC8}" name="band"/>
+    <tableColumn id="4" xr3:uid="{FA75D87C-CBE8-7A4D-9F24-B865034947D8}" name="firmname_page"/>
+    <tableColumn id="5" xr3:uid="{972CA70E-3842-2E4A-806E-70707082FE47}" name="Present in HB 32"/>
+    <tableColumn id="6" xr3:uid="{F586EB09-455F-E247-A1C4-675DE803131E}" name="_merge"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -783,7 +859,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -817,7 +893,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -852,10 +927,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1029,15 +1103,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" customWidth="1"/>
+    <col min="1" max="2" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,7 +1142,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1077,15 +1154,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1097,15 +1174,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1117,15 +1194,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1137,15 +1214,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1157,15 +1234,15 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1177,15 +1254,15 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1197,26 +1274,26 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1228,26 +1305,26 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1259,59 +1336,59 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1323,15 +1400,15 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1343,26 +1420,26 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1374,15 +1451,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1394,15 +1471,15 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1414,37 +1491,37 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1456,15 +1533,15 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1476,15 +1553,15 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1496,15 +1573,15 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1516,15 +1593,15 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1536,15 +1613,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -1556,15 +1633,15 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1576,15 +1653,15 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1596,15 +1673,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1616,15 +1693,15 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1636,15 +1713,15 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1656,15 +1733,15 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1676,15 +1753,15 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1696,15 +1773,15 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1716,15 +1793,15 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1736,15 +1813,15 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1756,26 +1833,26 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1787,26 +1864,26 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1818,15 +1895,15 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1838,15 +1915,15 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1858,15 +1935,15 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1878,15 +1955,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1898,26 +1975,26 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1929,15 +2006,15 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1949,15 +2026,15 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1969,15 +2046,15 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1989,15 +2066,15 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2009,15 +2086,15 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2029,1149 +2106,1223 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>381</v>
+        <v>1741</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57">
-        <v>1313</v>
+        <v>381</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>1409</v>
+        <v>1313</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>1328</v>
+        <v>1409</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>1267</v>
+        <v>1328</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61">
-        <v>499</v>
+        <v>1267</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62">
-        <v>1136</v>
+        <v>499</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>219</v>
+        <v>1136</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>699</v>
+        <v>219</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65">
-        <v>896</v>
+        <v>699</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>585</v>
+        <v>896</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>585</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>1334</v>
+        <v>126</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69">
-        <v>803</v>
+        <v>1334</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>1457</v>
+        <v>803</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>1206</v>
+        <v>1457</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>1236</v>
+        <v>1206</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>768</v>
+        <v>1236</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74">
-        <v>525</v>
+        <v>768</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>630</v>
+        <v>525</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>1348</v>
+        <v>67</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>674</v>
+        <v>144</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>524</v>
+        <v>1348</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>1959</v>
+        <v>674</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1203</v>
+        <v>524</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>1715</v>
+        <v>1959</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>974</v>
+        <v>1203</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1448</v>
+        <v>1715</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>1762</v>
+        <v>974</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>1448</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1762</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>1987</v>
+        <v>951</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90">
-        <v>552</v>
+        <v>165</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>1701</v>
+        <v>1987</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>552</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>171</v>
+      </c>
+      <c r="B94" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1701</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95">
-        <v>3</v>
-      </c>
-      <c r="D95">
-        <v>527</v>
+        <v>173</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1686</v>
+        <v>174</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
-      </c>
-      <c r="C97">
-        <v>3</v>
-      </c>
-      <c r="D97">
-        <v>671</v>
+        <v>175</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98">
-        <v>636</v>
+        <v>527</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>1297</v>
+        <v>1686</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>714</v>
+        <v>671</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101">
-        <v>722</v>
+        <v>636</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>590</v>
+        <v>1297</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>186</v>
+      </c>
+      <c r="B103" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>714</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1825</v>
+        <v>722</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>190</v>
+      </c>
+      <c r="B105" t="s">
+        <v>191</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>590</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" t="s">
-        <v>200</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
-        <v>781</v>
+        <v>192</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>1720</v>
+        <v>1825</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>112</v>
-      </c>
-      <c r="B108" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108">
-        <v>3</v>
-      </c>
-      <c r="D108">
-        <v>746</v>
+        <v>195</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1567</v>
+        <v>781</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>709</v>
+        <v>1261</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>211</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>1181</v>
+        <v>1720</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D112">
-        <v>460</v>
+        <v>746</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E113">
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>1422</v>
+        <v>709</v>
       </c>
       <c r="E114">
         <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>506</v>
+        <v>1181</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
         <v>210</v>
       </c>
       <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>460</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>1566</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>213</v>
+      </c>
+      <c r="B118" t="s">
+        <v>214</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1422</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>215</v>
+      </c>
+      <c r="B119" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>506</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>217</v>
+      </c>
+      <c r="B120" t="s">
+        <v>218</v>
+      </c>
+      <c r="C120">
         <v>3</v>
       </c>
-      <c r="D116">
+      <c r="D120">
         <v>1233</v>
       </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>211</v>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>